--- a/Symptom_Composition_by_Gas_Source_Overlap.xlsx
+++ b/Symptom_Composition_by_Gas_Source_Overlap.xlsx
@@ -473,151 +473,151 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Abnormal test result</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.8</v>
+        <v>1.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="E2" t="n">
-        <v>9.1</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="E4" t="n">
-        <v>8.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>11.1</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>10.9</v>
+        <v>8.4</v>
       </c>
       <c r="F5" t="n">
-        <v>10.6</v>
+        <v>6.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.8</v>
+        <v>8.6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="F6" t="n">
-        <v>14.8</v>
+        <v>10.8</v>
       </c>
       <c r="G6" t="n">
-        <v>18.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Eye/Ear</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.4</v>
+        <v>12.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>13.6</v>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>13.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E8" t="n">
         <v>6.7</v>
       </c>
       <c r="F8" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D9" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D10" t="n">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="E10" t="n">
-        <v>17.7</v>
+        <v>16.3</v>
       </c>
       <c r="F10" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="G10" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.1</v>
+        <v>24.9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="D11" t="n">
-        <v>29.6</v>
+        <v>38.5</v>
       </c>
       <c r="E11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F11" t="n">
-        <v>23.5</v>
+        <v>21.8</v>
       </c>
       <c r="G11" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E12" t="n">
         <v>2.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.4</v>
       </c>
       <c r="F12" t="n">
         <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Gas_Source_Overlap.xlsx
+++ b/Symptom_Composition_by_Gas_Source_Overlap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ABG-only</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>OTHER-only</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>VBG+OTHER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>VBG-only</t>
         </is>
@@ -473,276 +478,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abnormal test result</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>7.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="C3" t="n">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="D3" t="n">
         <v>4.9</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>6.9</v>
       </c>
       <c r="G3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.1</v>
+        <v>10.9</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="E4" t="n">
-        <v>9.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F4" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>8.4</v>
+        <v>12.3</v>
       </c>
       <c r="F5" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.6</v>
+        <v>14.3</v>
       </c>
       <c r="C6" t="n">
-        <v>27.8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="E6" t="n">
-        <v>10.1</v>
+        <v>12.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10.8</v>
+        <v>14.9</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.8</v>
+        <v>4.1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="D7" t="n">
-        <v>9.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="E7" t="n">
-        <v>13.6</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
-        <v>13.6</v>
+        <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>16.8</v>
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Genitourinary</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F8" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – Nervous</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="C9" t="n">
-        <v>5.6</v>
+        <v>11.8</v>
       </c>
       <c r="D9" t="n">
-        <v>4.8</v>
+        <v>11.6</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>13.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>14.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Nervous</t>
+          <t>Symptom – Respiratory</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.800000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="C10" t="n">
-        <v>5.6</v>
+        <v>38.5</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3</v>
+        <v>40.3</v>
       </c>
       <c r="E10" t="n">
-        <v>16.3</v>
+        <v>21.3</v>
       </c>
       <c r="F10" t="n">
-        <v>15.2</v>
+        <v>27.9</v>
       </c>
       <c r="G10" t="n">
-        <v>14.1</v>
+        <v>40</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Respiratory</t>
+          <t>Symptom – Skin/Hair/Nails</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.9</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7</v>
+        <v>2.2</v>
       </c>
       <c r="D11" t="n">
-        <v>38.5</v>
+        <v>2.4</v>
       </c>
       <c r="E11" t="n">
-        <v>14.6</v>
+        <v>2.8</v>
       </c>
       <c r="F11" t="n">
-        <v>21.8</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>24.9</v>
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Skin/Hair/Nails</t>
+          <t>Uncodable/Unknown</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.9</v>
-      </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Gas_Source_Overlap.xlsx
+++ b/Symptom_Composition_by_Gas_Source_Overlap.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="C2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="E2" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="F2" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
         <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.5</v>
+        <v>17.7</v>
       </c>
       <c r="C3" t="n">
-        <v>8.5</v>
+        <v>12.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.9</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>6.9</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>7.1</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.3</v>
+        <v>15.4</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="D6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F6" t="n">
         <v>14.9</v>
       </c>
       <c r="G6" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="H6" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="7">
@@ -625,50 +625,50 @@
         <v>4.1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="F7" t="n">
         <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Genitourinary</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         <v>5.6</v>
       </c>
       <c r="C9" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D9" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>13.4</v>
       </c>
       <c r="G9" t="n">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="H9" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="10">
@@ -709,13 +709,13 @@
         <v>22.6</v>
       </c>
       <c r="C10" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="D10" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="F10" t="n">
         <v>27.9</v>
@@ -724,7 +724,7 @@
         <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="11">
@@ -734,19 +734,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
         <v>2.2</v>
       </c>
-      <c r="D11" t="n">
-        <v>2.4</v>
-      </c>
       <c r="E11" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
         <v>1.2</v>
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F12" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G12" t="n">
         <v>1.2</v>

--- a/Symptom_Composition_by_Gas_Source_Overlap.xlsx
+++ b/Symptom_Composition_by_Gas_Source_Overlap.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ABG+OTHER</t>
+          <t>ABG+UNKNOWN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ABG+VBG+OTHER</t>
+          <t>ABG+VBG+UNKNOWN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OTHER-only</t>
+          <t>UNKNOWN-only</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>VBG+OTHER</t>
+          <t>VBG+UNKNOWN</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -478,197 +478,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Administrative</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="C2" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.7</v>
+        <v>3.4</v>
       </c>
       <c r="C3" t="n">
-        <v>12.6</v>
+        <v>4.9</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>7.7</v>
       </c>
       <c r="F3" t="n">
-        <v>10.5</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="H3" t="n">
-        <v>10.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.300000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="C4" t="n">
-        <v>5.5</v>
+        <v>16.6</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>14.3</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4</v>
+        <v>22.7</v>
       </c>
       <c r="F4" t="n">
-        <v>7.2</v>
+        <v>15.2</v>
       </c>
       <c r="G4" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="C5" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="n">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="E5" t="n">
-        <v>11.3</v>
+        <v>6.3</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6</v>
+        <v>6.3</v>
       </c>
       <c r="D6" t="n">
-        <v>9.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="E6" t="n">
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="F6" t="n">
-        <v>14.9</v>
+        <v>8.9</v>
       </c>
       <c r="G6" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.1</v>
+        <v>11.9</v>
       </c>
       <c r="C7" t="n">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>7.1</v>
       </c>
       <c r="E7" t="n">
-        <v>4.1</v>
+        <v>10.6</v>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>12.7</v>
       </c>
       <c r="G7" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Musculoskeletal</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C9" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="D9" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="E9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="G9" t="n">
-        <v>13.7</v>
+        <v>10.9</v>
       </c>
       <c r="H9" t="n">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="C10" t="n">
-        <v>38.2</v>
+        <v>41.6</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>41.1</v>
       </c>
       <c r="E10" t="n">
-        <v>21.1</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>27.9</v>
+        <v>23.4</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>43.8</v>
       </c>
       <c r="H10" t="n">
-        <v>34.4</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D11" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="E11" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.6</v>
       </c>
-      <c r="E12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Symptom_Composition_by_Gas_Source_Overlap.xlsx
+++ b/Symptom_Composition_by_Gas_Source_Overlap.xlsx
@@ -478,197 +478,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Administrative</t>
+          <t>Diseases (patient-stated)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diseases (patient-stated)</t>
+          <t>Injuries &amp; adverse effects</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.4</v>
+        <v>16.7</v>
       </c>
       <c r="C3" t="n">
-        <v>4.9</v>
+        <v>13.7</v>
       </c>
       <c r="D3" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="E3" t="n">
-        <v>7.7</v>
+        <v>18.2</v>
       </c>
       <c r="F3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>5.7</v>
       </c>
-      <c r="G3" t="n">
-        <v>7.8</v>
-      </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Injuries &amp; adverse effects</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.6</v>
+        <v>8.5</v>
       </c>
       <c r="C4" t="n">
-        <v>16.6</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3</v>
+        <v>7.7</v>
       </c>
       <c r="E4" t="n">
-        <v>22.7</v>
+        <v>6.6</v>
       </c>
       <c r="F4" t="n">
-        <v>15.2</v>
+        <v>7.4</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>10.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Symptom – Circulatory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="E5" t="n">
-        <v>6.3</v>
+        <v>11.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Circulatory</t>
+          <t>Symptom – Digestive</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.300000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="C6" t="n">
-        <v>6.3</v>
+        <v>10.1</v>
       </c>
       <c r="D6" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4</v>
+        <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>8.9</v>
+        <v>15.1</v>
       </c>
       <c r="G6" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Symptom – Digestive</t>
+          <t>Symptom – General</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.9</v>
+        <v>4.7</v>
       </c>
       <c r="C7" t="n">
-        <v>7.3</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="E7" t="n">
-        <v>10.6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>12.7</v>
+        <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="H7" t="n">
-        <v>10.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Symptom – General</t>
+          <t>Symptom – Musculoskeletal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>16.5</v>
+        <v>13.7</v>
       </c>
       <c r="G9" t="n">
-        <v>10.9</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.6</v>
+        <v>22.1</v>
       </c>
       <c r="C10" t="n">
-        <v>41.6</v>
+        <v>37.8</v>
       </c>
       <c r="D10" t="n">
-        <v>41.1</v>
+        <v>40.3</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>21.1</v>
       </c>
       <c r="F10" t="n">
-        <v>23.4</v>
+        <v>27.7</v>
       </c>
       <c r="G10" t="n">
-        <v>43.8</v>
+        <v>39.3</v>
       </c>
       <c r="H10" t="n">
-        <v>38.4</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="C12" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E12" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
